--- a/biology/Botanique/Wolffia/Wolffia.xlsx
+++ b/biology/Botanique/Wolffia/Wolffia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wolffia (les wolfies), est un genre de plantes aquatiques flottantes de la famille des Araceae (auparavant des Lemnaceae).
 Le nom générique Wolffia a été créé en l'honneur du botaniste allemand Johann Friedrich Wolff (1778-1806).
@@ -512,7 +524,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces plantes ont un appareil végétatif très simplifié, de taille minuscule, constituée par une lamelle verte (fronde) de dimensions réduites (de l'ordre du millimètre, ce qui en fait les plus petites des plantes à fleurs), généralement ovale, flottant à la surface de l'eau, sans racines et portant des fleurs au-dessus. Elles sont souvent isolées ou réunies par deux et forment des populations denses à la surface des eaux douces stagnantes.
 Ce sont des plantes vivaces se reproduisant de manière végétative par bourgeonnement de la lame.
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les wolfies sont présentes sur tous les continents.
 </t>
@@ -577,7 +593,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Wolffia arrhiza (L.) Horkel ex Wimm., la wolfie sans racines
 Wolffia borealis (Engelm.) Landolt
